--- a/data/resource_data.xlsx
+++ b/data/resource_data.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludwik/AI-Spring-2021/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{577AA37D-E125-E047-9C3C-55FC27C32F2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15520"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterate="1"/>
+  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -31,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
-  <si>
-    <t>waste</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>R23'</t>
   </si>
@@ -45,9 +39,6 @@
     <t>R21'</t>
   </si>
   <si>
-    <t>analog to housing (and housing sufficiency)</t>
-  </si>
-  <si>
     <t>R23</t>
   </si>
   <si>
@@ -88,19 +79,129 @@
   </si>
   <si>
     <t>Resource</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>0.8 </t>
+  </si>
+  <si>
+    <t>analog to land</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>analog to renewable energy capacity</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>analog to fossil energy capacity</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>analog to water</t>
+  </si>
+  <si>
+    <t>R8 </t>
+  </si>
+  <si>
+    <t>Analog to farm </t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>analog to military</t>
+  </si>
+  <si>
+    <t>analog to housing</t>
+  </si>
+  <si>
+    <t>analog to food</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>analog to prepared fossil energy </t>
+  </si>
+  <si>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>Analog to prepared renewable energy</t>
+  </si>
+  <si>
+    <t>R20'</t>
+  </si>
+  <si>
+    <t>Waste military</t>
+  </si>
+  <si>
+    <t>Waste metallic alloys</t>
+  </si>
+  <si>
+    <t>Waste housing</t>
+  </si>
+  <si>
+    <t>Waste food</t>
+  </si>
+  <si>
+    <t>R24'</t>
+  </si>
+  <si>
+    <t>Waste  prepared fossil energy </t>
+  </si>
+  <si>
+    <t>R25'</t>
+  </si>
+  <si>
+    <t>Waste electronics</t>
+  </si>
+  <si>
+    <t>R8’</t>
+  </si>
+  <si>
+    <t>Farm waste </t>
+  </si>
+  <si>
+    <t>R26’</t>
+  </si>
+  <si>
+    <t>Waste prepared renewable energy </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -131,6 +232,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -191,7 +294,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -243,7 +346,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -437,7 +540,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -445,128 +548,287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A21" sqref="A21:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="2" customFormat="1">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="2" customFormat="1">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="2" customFormat="1">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="2" customFormat="1">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="2" customFormat="1">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="2" customFormat="1">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="2" customFormat="1">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4">
+        <v>-0.3</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>0</v>
+      <c r="B20" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="3">
+        <v>-0.4</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data/resource_data.xlsx
+++ b/data/resource_data.xlsx
@@ -30,15 +30,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
-    <t>R23'</t>
-  </si>
-  <si>
-    <t>R22'</t>
-  </si>
-  <si>
-    <t>R21'</t>
-  </si>
-  <si>
     <t>R23</t>
   </si>
   <si>
@@ -141,9 +132,6 @@
     <t>Analog to prepared renewable energy</t>
   </si>
   <si>
-    <t>R20'</t>
-  </si>
-  <si>
     <t>Waste military</t>
   </si>
   <si>
@@ -156,28 +144,40 @@
     <t>Waste food</t>
   </si>
   <si>
-    <t>R24'</t>
-  </si>
-  <si>
     <t>Waste  prepared fossil energy </t>
   </si>
   <si>
-    <t>R25'</t>
-  </si>
-  <si>
     <t>Waste electronics</t>
   </si>
   <si>
-    <t>R8’</t>
-  </si>
-  <si>
     <t>Farm waste </t>
   </si>
   <si>
-    <t>R26’</t>
-  </si>
-  <si>
     <t>Waste prepared renewable energy </t>
+  </si>
+  <si>
+    <t>R20X</t>
+  </si>
+  <si>
+    <t>R21X</t>
+  </si>
+  <si>
+    <t>R22X</t>
+  </si>
+  <si>
+    <t>R23X</t>
+  </si>
+  <si>
+    <t>R24X</t>
+  </si>
+  <si>
+    <t>R25X</t>
+  </si>
+  <si>
+    <t>R8X</t>
+  </si>
+  <si>
+    <t>R26X</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -551,7 +551,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:C24"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -561,266 +561,266 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3">
         <v>0.8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
         <v>0.8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="2" customFormat="1">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="2" customFormat="1">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3">
         <v>0.5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="2" customFormat="1">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3">
         <v>0.3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="2" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="2" customFormat="1">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3">
         <v>0.8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="2" customFormat="1">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="3">
         <v>0.5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B11" s="3">
         <v>0.3</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3">
         <v>0.5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3">
         <v>0.8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="3">
         <v>0.7</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B17" s="3">
         <v>-0.2</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>-0.1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B19" s="4">
         <v>-0.3</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B20" s="4">
         <v>-0.5</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B21" s="3">
         <v>-0.4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B22" s="3">
         <v>-0.5</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B23" s="3">
         <v>-0.5</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" s="3">
         <v>-0.2</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data/resource_data.xlsx
+++ b/data/resource_data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>R23</t>
   </si>
@@ -178,6 +178,36 @@
   </si>
   <si>
     <t>R26X</t>
+  </si>
+  <si>
+    <t>R2X</t>
+  </si>
+  <si>
+    <t>R3X</t>
+  </si>
+  <si>
+    <t>R4X</t>
+  </si>
+  <si>
+    <t>R5X</t>
+  </si>
+  <si>
+    <t>R6X</t>
+  </si>
+  <si>
+    <t>timber wastre</t>
+  </si>
+  <si>
+    <t>metallic elements waste</t>
+  </si>
+  <si>
+    <t>land waste</t>
+  </si>
+  <si>
+    <t>REC waste</t>
+  </si>
+  <si>
+    <t>FEC waste</t>
   </si>
 </sst>
 </file>
@@ -540,7 +570,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -548,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -823,6 +853,61 @@
         <v>41</v>
       </c>
     </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="3">
+        <v>-0.4</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="3">
+        <v>-0.3</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/data/resource_data.xlsx
+++ b/data/resource_data.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="24709"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludwik/AI-Spring-2021/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD9E551-4AC3-7342-8277-0E4B064F0395}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15520"/>
+    <workbookView xWindow="-140" yWindow="500" windowWidth="11120" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -23,6 +26,9 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -213,7 +219,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -226,12 +232,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -570,26 +578,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -600,7 +608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1">
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -611,7 +619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1">
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -622,7 +630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1">
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -633,7 +641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="2" customFormat="1">
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -644,7 +652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="2" customFormat="1">
+    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -655,7 +663,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="2" customFormat="1">
+    <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -666,7 +674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="2" customFormat="1">
+    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -677,7 +685,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="2" customFormat="1">
+    <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
@@ -688,7 +696,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="2" customFormat="1">
+    <row r="10" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -699,7 +707,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -710,7 +718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -721,7 +729,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
@@ -732,7 +740,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
@@ -743,7 +751,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
@@ -754,7 +762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
@@ -765,7 +773,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
@@ -776,7 +784,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>43</v>
       </c>
@@ -787,7 +795,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
@@ -798,7 +806,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
@@ -809,7 +817,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -820,7 +828,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
@@ -831,7 +839,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
@@ -842,7 +850,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>49</v>
       </c>
@@ -853,7 +861,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
@@ -864,7 +872,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>51</v>
       </c>
@@ -875,7 +883,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
@@ -886,7 +894,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>53</v>
       </c>
@@ -897,7 +905,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>54</v>
       </c>

--- a/data/resource_data.xlsx
+++ b/data/resource_data.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludwik/AI-Spring-2021/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD9E551-4AC3-7342-8277-0E4B064F0395}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-140" yWindow="500" windowWidth="11120" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -26,9 +23,6 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -105,9 +99,6 @@
     <t>analog to water</t>
   </si>
   <si>
-    <t>R8 </t>
-  </si>
-  <si>
     <t>Analog to farm </t>
   </si>
   <si>
@@ -214,12 +205,15 @@
   </si>
   <si>
     <t>FEC waste</t>
+  </si>
+  <si>
+    <t>R8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -578,26 +572,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -608,7 +602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="2" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -619,7 +613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -630,7 +624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="2" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -641,7 +635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" s="2" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -652,7 +646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="2" customFormat="1">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -663,7 +657,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" s="2" customFormat="1">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -674,7 +668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" s="2" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -685,29 +679,29 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" s="2" customFormat="1">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B9" s="3">
         <v>0.8</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="2" customFormat="1">
+      <c r="A10" s="3" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="B10" s="3">
         <v>0.5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -718,7 +712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -726,10 +720,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
@@ -737,23 +731,23 @@
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="B14" s="3">
         <v>0.5</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="B15" s="3">
         <v>0.8</v>
@@ -762,158 +756,158 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>0.7</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="3">
         <v>-0.2</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="3">
         <v>-0.1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="4">
         <v>-0.3</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="4">
         <v>-0.5</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="3">
         <v>-0.4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="3">
         <v>-0.5</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="3">
         <v>-0.5</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="3">
         <v>-0.2</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="3">
         <v>-0.4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="3">
         <v>-0.2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="3">
         <v>-0.2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="3">
         <v>-0.3</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" s="3">
         <v>-0.1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/data/resource_data.xlsx
+++ b/data/resource_data.xlsx
@@ -1,71 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="24709"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludwik/AI-Spring-2021/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701E6FB0-9B1A-F445-9D1B-FCEF4EA04767}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="140001" iterate="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>R23</t>
   </si>
   <si>
-    <t>analog to electronics</t>
-  </si>
-  <si>
     <t>R22</t>
   </si>
   <si>
-    <t>analog to metallic alloys</t>
-  </si>
-  <si>
     <t>R21</t>
   </si>
   <si>
-    <t>analog to timber</t>
-  </si>
-  <si>
     <t>R3</t>
   </si>
   <si>
-    <t>analog to metallic elements</t>
-  </si>
-  <si>
     <t>R2</t>
   </si>
   <si>
-    <t>analog to population</t>
-  </si>
-  <si>
     <t>R1</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Weight</t>
   </si>
   <si>
@@ -75,84 +54,27 @@
     <t>R4</t>
   </si>
   <si>
-    <t>0.8 </t>
-  </si>
-  <si>
-    <t>analog to land</t>
-  </si>
-  <si>
     <t>R5</t>
   </si>
   <si>
-    <t>analog to renewable energy capacity</t>
-  </si>
-  <si>
     <t>R6</t>
   </si>
   <si>
-    <t>analog to fossil energy capacity</t>
-  </si>
-  <si>
     <t>R7</t>
   </si>
   <si>
-    <t>analog to water</t>
-  </si>
-  <si>
-    <t>Analog to farm </t>
-  </si>
-  <si>
     <t>R20</t>
   </si>
   <si>
-    <t>analog to military</t>
-  </si>
-  <si>
-    <t>analog to housing</t>
-  </si>
-  <si>
-    <t>analog to food</t>
-  </si>
-  <si>
     <t>R24</t>
   </si>
   <si>
-    <t>analog to prepared fossil energy </t>
-  </si>
-  <si>
     <t>R25</t>
   </si>
   <si>
     <t>R26</t>
   </si>
   <si>
-    <t>Analog to prepared renewable energy</t>
-  </si>
-  <si>
-    <t>Waste military</t>
-  </si>
-  <si>
-    <t>Waste metallic alloys</t>
-  </si>
-  <si>
-    <t>Waste housing</t>
-  </si>
-  <si>
-    <t>Waste food</t>
-  </si>
-  <si>
-    <t>Waste  prepared fossil energy </t>
-  </si>
-  <si>
-    <t>Waste electronics</t>
-  </si>
-  <si>
-    <t>Farm waste </t>
-  </si>
-  <si>
-    <t>Waste prepared renewable energy </t>
-  </si>
-  <si>
     <t>R20X</t>
   </si>
   <si>
@@ -192,29 +114,101 @@
     <t>R6X</t>
   </si>
   <si>
-    <t>timber wastre</t>
-  </si>
-  <si>
-    <t>metallic elements waste</t>
-  </si>
-  <si>
-    <t>land waste</t>
-  </si>
-  <si>
-    <t>REC waste</t>
-  </si>
-  <si>
-    <t>FEC waste</t>
-  </si>
-  <si>
     <t>R8</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Housing</t>
+  </si>
+  <si>
+    <t>Military</t>
+  </si>
+  <si>
+    <t>Farm </t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Fossil energy capacity</t>
+  </si>
+  <si>
+    <t>RenewableEnergyCapacity</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Timber</t>
+  </si>
+  <si>
+    <t>MetallicElements</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>MetallicAlloys</t>
+  </si>
+  <si>
+    <t>PreparedFossilEnergy </t>
+  </si>
+  <si>
+    <t>PreparedRenewableEnergy</t>
+  </si>
+  <si>
+    <t>WasteMilitary</t>
+  </si>
+  <si>
+    <t>WasteMetallicAlloys</t>
+  </si>
+  <si>
+    <t>WasteHousing</t>
+  </si>
+  <si>
+    <t>WasteFood</t>
+  </si>
+  <si>
+    <t>WastePreparedFossilEnergy </t>
+  </si>
+  <si>
+    <t>WasteElectronics</t>
+  </si>
+  <si>
+    <t>FarmWaste </t>
+  </si>
+  <si>
+    <t>WastePreparedRenewableEnergy </t>
+  </si>
+  <si>
+    <t>MetallicElementsWaste</t>
+  </si>
+  <si>
+    <t>TimberWaste</t>
+  </si>
+  <si>
+    <t>LandWaste</t>
+  </si>
+  <si>
+    <t>RECWaste</t>
+  </si>
+  <si>
+    <t>FECWaste</t>
+  </si>
+  <si>
+    <t>Names</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -223,13 +217,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -256,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -265,7 +252,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,158 +558,158 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3">
         <v>0.8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="2" customFormat="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>0.8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="2" customFormat="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="2" customFormat="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3">
         <v>0.5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="2" customFormat="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3">
         <v>0.3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="2" customFormat="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="2" customFormat="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B9" s="3">
         <v>0.8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="2" customFormat="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3">
         <v>0.5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" s="3">
         <v>0.3</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
@@ -731,183 +717,183 @@
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3">
         <v>0.5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3">
         <v>0.8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3">
         <v>0.7</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3">
         <v>-0.2</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3">
         <v>-0.1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
         <v>-0.3</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="C19" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
         <v>-0.5</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="C20" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3">
         <v>-0.4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3">
         <v>-0.5</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3">
         <v>-0.5</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3">
         <v>-0.2</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3">
         <v>-0.4</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="C25" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3">
         <v>-0.2</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3">
         <v>-0.2</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="C27" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3">
         <v>-0.3</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="C28" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3">
         <v>-0.1</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>58</v>
+      <c r="C29" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/data/resource_data.xlsx
+++ b/data/resource_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludwik/AI-Spring-2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701E6FB0-9B1A-F445-9D1B-FCEF4EA04767}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C7120E-667B-714A-B0D7-8D5D93D20842}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,19 +208,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -243,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -251,7 +245,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -312,7 +305,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -364,7 +357,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -569,7 +562,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -578,321 +571,321 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>0.8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>0.8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>0.8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>0.5</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>0.3</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>0.8</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>0.5</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>0.3</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>0.5</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>0.8</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>0.7</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>-0.2</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18">
         <v>-0.1</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19">
         <v>-0.3</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20">
         <v>-0.5</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21">
         <v>-0.4</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22">
         <v>-0.5</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23">
         <v>-0.5</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24">
         <v>-0.2</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25">
         <v>-0.4</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26">
         <v>-0.2</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27">
         <v>-0.2</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28">
         <v>-0.3</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29">
         <v>-0.1</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" t="s">
         <v>57</v>
       </c>
     </row>

--- a/data/resource_data.xlsx
+++ b/data/resource_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludwik/AI-Spring-2021/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kellywolfe/PycharmProjects/AI-Spring-2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C7120E-667B-714A-B0D7-8D5D93D20842}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79719A3B-9F50-3448-8C33-1CBEDA3C3D8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12480" yWindow="460" windowWidth="16320" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>R23</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>Names</t>
+  </si>
+  <si>
+    <t>R7X</t>
+  </si>
+  <si>
+    <t>Water Waste</t>
   </si>
 </sst>
 </file>
@@ -559,15 +565,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -597,7 +603,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>40</v>
@@ -605,291 +611,305 @@
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B15">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.7</v>
+        <v>-0.2</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>-0.2</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B19">
-        <v>-0.3</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B21">
-        <v>-0.4</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B23">
-        <v>-0.5</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B24">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B25">
-        <v>-0.4</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B26">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B27">
-        <v>-0.2</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B28">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B29">
-        <v>-0.1</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30">
+        <v>-0.2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C30">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/data/resource_data.xlsx
+++ b/data/resource_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kellywolfe/PycharmProjects/AI-Spring-2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79719A3B-9F50-3448-8C33-1CBEDA3C3D8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188A87F5-C268-ED48-8051-5C4C9BFB0656}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12480" yWindow="460" windowWidth="16320" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/resource_data.xlsx
+++ b/data/resource_data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kellywolfe/PycharmProjects/AI-Spring-2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188A87F5-C268-ED48-8051-5C4C9BFB0656}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62534F49-581F-D449-A771-2E07703C9D79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12480" yWindow="460" windowWidth="16320" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" iterate="1"/>
+  <calcPr calcId="181029" iterate="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -568,7 +568,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/resource_data.xlsx
+++ b/data/resource_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kellywolfe/PycharmProjects/AI-Spring-2021/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludwik/AI-Spring-2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62534F49-581F-D449-A771-2E07703C9D79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34CA83F-79E3-C442-9D38-44ACB2D46B72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="460" windowWidth="16320" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12480" yWindow="500" windowWidth="16320" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>R23</t>
   </si>
@@ -51,33 +51,9 @@
     <t>Resource</t>
   </si>
   <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>R20</t>
-  </si>
-  <si>
     <t>R24</t>
   </si>
   <si>
-    <t>R25</t>
-  </si>
-  <si>
-    <t>R26</t>
-  </si>
-  <si>
-    <t>R20X</t>
-  </si>
-  <si>
     <t>R21X</t>
   </si>
   <si>
@@ -90,33 +66,6 @@
     <t>R24X</t>
   </si>
   <si>
-    <t>R25X</t>
-  </si>
-  <si>
-    <t>R8X</t>
-  </si>
-  <si>
-    <t>R26X</t>
-  </si>
-  <si>
-    <t>R2X</t>
-  </si>
-  <si>
-    <t>R3X</t>
-  </si>
-  <si>
-    <t>R4X</t>
-  </si>
-  <si>
-    <t>R5X</t>
-  </si>
-  <si>
-    <t>R6X</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
     <t>Electronics</t>
   </si>
   <si>
@@ -126,24 +75,6 @@
     <t>Housing</t>
   </si>
   <si>
-    <t>Military</t>
-  </si>
-  <si>
-    <t>Farm </t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Fossil energy capacity</t>
-  </si>
-  <si>
-    <t>RenewableEnergyCapacity</t>
-  </si>
-  <si>
-    <t>Land</t>
-  </si>
-  <si>
     <t>Timber</t>
   </si>
   <si>
@@ -156,58 +87,19 @@
     <t>MetallicAlloys</t>
   </si>
   <si>
-    <t>PreparedFossilEnergy </t>
-  </si>
-  <si>
-    <t>PreparedRenewableEnergy</t>
-  </si>
-  <si>
-    <t>WasteMilitary</t>
-  </si>
-  <si>
-    <t>WasteMetallicAlloys</t>
-  </si>
-  <si>
-    <t>WasteHousing</t>
-  </si>
-  <si>
-    <t>WasteFood</t>
-  </si>
-  <si>
-    <t>WastePreparedFossilEnergy </t>
-  </si>
-  <si>
-    <t>WasteElectronics</t>
-  </si>
-  <si>
-    <t>FarmWaste </t>
-  </si>
-  <si>
-    <t>WastePreparedRenewableEnergy </t>
-  </si>
-  <si>
-    <t>MetallicElementsWaste</t>
-  </si>
-  <si>
-    <t>TimberWaste</t>
-  </si>
-  <si>
-    <t>LandWaste</t>
-  </si>
-  <si>
-    <t>RECWaste</t>
-  </si>
-  <si>
-    <t>FECWaste</t>
-  </si>
-  <si>
     <t>Names</t>
   </si>
   <si>
-    <t>R7X</t>
-  </si>
-  <si>
-    <t>Water Waste</t>
+    <t>MetallicAlloysWaste</t>
+  </si>
+  <si>
+    <t>HousingWaste</t>
+  </si>
+  <si>
+    <t>FoodWaste</t>
+  </si>
+  <si>
+    <t>ElectronicsWaste</t>
   </si>
 </sst>
 </file>
@@ -565,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -584,7 +476,7 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -592,10 +484,10 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -603,311 +495,113 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.1</v>
+        <v>0.5</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>-0.1</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>-0.1</v>
+        <v>-0.25</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.1</v>
+        <v>-0.25</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>-0.1</v>
+        <v>-0.25</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14">
-        <v>-0.1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16">
-        <v>-0.2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>-0.2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20">
-        <v>-0.1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22">
-        <v>-0.1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24">
-        <v>-0.1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26">
-        <v>-0.3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28">
-        <v>-0.2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
         <v>23</v>
       </c>
-      <c r="B30">
-        <v>-0.2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>52</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C12">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/resource_data.xlsx
+++ b/data/resource_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludwik/AI-Spring-2021/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kellywolfe/PycharmProjects/AI-Spring-2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34CA83F-79E3-C442-9D38-44ACB2D46B72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E45265C-E59C-AF40-9109-FFE3D8ED3C18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12480" yWindow="500" windowWidth="16320" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>R23</t>
   </si>
@@ -100,6 +100,30 @@
   </si>
   <si>
     <t>ElectronicsWaste</t>
+  </si>
+  <si>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>Fertilizer</t>
+  </si>
+  <si>
+    <t>R25X</t>
+  </si>
+  <si>
+    <t>FertilizerWaste</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>Farm</t>
+  </si>
+  <si>
+    <t>R26X</t>
+  </si>
+  <si>
+    <t>FarmWaste</t>
   </si>
 </sst>
 </file>
@@ -457,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -600,8 +624,52 @@
         <v>23</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>-0.25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>-0.25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C12">
+  <sortState ref="A2:C12">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/resource_data.xlsx
+++ b/data/resource_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kellywolfe/PycharmProjects/AI-Spring-2021/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/regansiems/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E45265C-E59C-AF40-9109-FFE3D8ED3C18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073E8B23-8699-3541-A5BC-673433EB6742}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="500" windowWidth="16320" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13560" yWindow="500" windowWidth="14260" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>R23</t>
   </si>
@@ -105,25 +105,85 @@
     <t>R25</t>
   </si>
   <si>
-    <t>Fertilizer</t>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>R5</t>
   </si>
   <si>
     <t>R25X</t>
   </si>
   <si>
-    <t>FertilizerWaste</t>
+    <t>RenewableEnergy</t>
   </si>
   <si>
     <t>R26</t>
   </si>
   <si>
-    <t>Farm</t>
-  </si>
-  <si>
     <t>R26X</t>
   </si>
   <si>
-    <t>FarmWaste</t>
+    <t>Weapons</t>
+  </si>
+  <si>
+    <t>WeaponsWaste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Military </t>
+  </si>
+  <si>
+    <t>MilitaryWaste</t>
+  </si>
+  <si>
+    <t>Medicine</t>
+  </si>
+  <si>
+    <t>MedicineWaste</t>
+  </si>
+  <si>
+    <t>R27</t>
+  </si>
+  <si>
+    <t>R27X</t>
+  </si>
+  <si>
+    <t>R28</t>
+  </si>
+  <si>
+    <t>R28X</t>
+  </si>
+  <si>
+    <t>Telecommunications</t>
+  </si>
+  <si>
+    <t>TelecommunicationsWaste</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>TransportationWaste</t>
+  </si>
+  <si>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>R29X</t>
+  </si>
+  <si>
+    <t>R30</t>
+  </si>
+  <si>
+    <t>R30X</t>
+  </si>
+  <si>
+    <t>FossilEnergyWaste</t>
+  </si>
+  <si>
+    <t>FossilEnergy</t>
   </si>
 </sst>
 </file>
@@ -481,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,138 +598,248 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B6">
-        <v>-0.1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.25</v>
+        <v>-0.1</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>-0.25</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>-0.25</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>-0.25</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>28</v>
+      <c r="C14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>-0.5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B16">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>-0.4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>-0.5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22">
         <v>-0.25</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>32</v>
+      <c r="C22" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23">
+        <v>2.5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24">
+        <v>-0.15</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25">
+        <v>2.5</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>-0.45</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C14">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/resource_data.xlsx
+++ b/data/resource_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/regansiems/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kellywolfe/PycharmProjects/AI-Spring-2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073E8B23-8699-3541-A5BC-673433EB6742}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8A73C6-96D2-9149-9D4E-9F78FEA9D07D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13560" yWindow="500" windowWidth="14260" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13560" yWindow="460" windowWidth="14260" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>R23</t>
   </si>
@@ -184,6 +184,15 @@
   </si>
   <si>
     <t>FossilEnergy</t>
+  </si>
+  <si>
+    <t>Fertilizer</t>
+  </si>
+  <si>
+    <t>R31</t>
+  </si>
+  <si>
+    <t>R31X</t>
   </si>
 </sst>
 </file>
@@ -541,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -838,8 +847,24 @@
         <v>46</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C14">
+  <sortState ref="A2:C14">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/resource_data.xlsx
+++ b/data/resource_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kellywolfe/PycharmProjects/AI-Spring-2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8A73C6-96D2-9149-9D4E-9F78FEA9D07D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5959DA64-2266-404C-89DF-789E05C31AB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13560" yWindow="460" windowWidth="14260" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>R23</t>
   </si>
@@ -193,6 +193,21 @@
   </si>
   <si>
     <t>R31X</t>
+  </si>
+  <si>
+    <t>FertilierWate</t>
+  </si>
+  <si>
+    <t>R32</t>
+  </si>
+  <si>
+    <t>R32X</t>
+  </si>
+  <si>
+    <t>Farm</t>
+  </si>
+  <si>
+    <t>FarmWaste</t>
   </si>
 </sst>
 </file>
@@ -550,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -861,6 +876,34 @@
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>55</v>
+      </c>
+      <c r="B28">
+        <v>-0.1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30">
+        <v>-0.25</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
